--- a/Finflux Automation Excels/Client/4624-NonWorkSatandSun-REPAYDUE-MOVEtoNEXTREPAYMENTMEETINGDAY-CENTER-DISBWeeklyLOANon01JAN2013-Collectionsheeton08JAN2013.xlsx
+++ b/Finflux Automation Excels/Client/4624-NonWorkSatandSun-REPAYDUE-MOVEtoNEXTREPAYMENTMEETINGDAY-CENTER-DISBWeeklyLOANon01JAN2013-Collectionsheeton08JAN2013.xlsx
@@ -74,9 +74,6 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>Repayment (at time of disbursement)</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -441,6 +441,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,31 +825,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3">
         <v>42088</v>
@@ -854,7 +857,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>42088</v>
@@ -862,7 +865,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -870,7 +873,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -878,7 +881,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -886,7 +889,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="20">
         <v>10000</v>
@@ -894,15 +897,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3">
         <v>42088</v>
@@ -910,7 +913,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="20">
         <v>10000</v>
@@ -918,23 +921,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3">
         <v>42088</v>
@@ -942,23 +945,23 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3">
         <v>42088</v>
@@ -966,10 +969,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -983,37 +986,36 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,25 +1023,25 @@
         <v>10000</v>
       </c>
       <c r="B2" s="8">
-        <v>3337.19</v>
+        <v>3327.32</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="D2" s="23">
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>6662.81</v>
+        <v>6672.68</v>
       </c>
       <c r="F2" s="5">
-        <v>823.89</v>
+        <v>834.58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>22.8</v>
+        <v>23.31</v>
       </c>
       <c r="B3" s="5">
-        <v>3.29</v>
+        <v>13.16</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -1048,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>19.510000000000002</v>
+        <v>10.15</v>
       </c>
       <c r="F3" s="5">
-        <v>11.23</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,7 +1106,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,11 +1123,10 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,21 +1257,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
+        <v>42091</v>
+      </c>
+      <c r="D4" s="6">
         <v>42093</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8">
-        <v>2495.5</v>
+      <c r="E4" s="9"/>
+      <c r="F4" s="5">
+        <v>831.83</v>
       </c>
       <c r="G4" s="8">
-        <v>6672.67</v>
+        <v>8336.34</v>
       </c>
       <c r="H4" s="5">
-        <v>9.86</v>
+        <v>3.29</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -1281,19 +1284,19 @@
       <c r="K4" s="5">
         <v>835.12</v>
       </c>
-      <c r="L4" s="8">
-        <v>2495.5</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8">
-        <v>1670.24</v>
+      <c r="L4" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
+        <v>0</v>
       </c>
       <c r="O4" s="5">
-        <v>0</v>
+        <v>835.12</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5">
-        <v>9.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1301,21 +1304,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
+        <v>42092</v>
+      </c>
+      <c r="D5" s="6">
         <v>42093</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="5">
-        <v>668.47</v>
+        <v>831.83</v>
       </c>
       <c r="G5" s="8">
-        <v>6004.2</v>
+        <v>7504.51</v>
       </c>
       <c r="H5" s="5">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -1324,21 +1329,21 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
       <c r="L5" s="5">
-        <v>9.86</v>
+        <v>835.12</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5">
         <v>0</v>
       </c>
       <c r="O5" s="5">
-        <v>0</v>
+        <v>835.12</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5">
-        <v>658.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1346,21 +1351,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6">
         <v>42093</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="6">
+        <v>42093</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="5">
-        <v>668.47</v>
+        <v>831.83</v>
       </c>
       <c r="G6" s="8">
-        <v>5335.73</v>
+        <v>6672.68</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -1369,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
       <c r="L6" s="5">
-        <v>0</v>
+        <v>835.12</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5">
@@ -1383,7 +1390,7 @@
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5">
-        <v>668.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1399,10 +1406,10 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>666.28</v>
+        <v>832.93</v>
       </c>
       <c r="G7" s="8">
-        <v>4669.45</v>
+        <v>5839.75</v>
       </c>
       <c r="H7" s="5">
         <v>2.19</v>
@@ -1414,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -1428,7 +1435,7 @@
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1444,10 +1451,10 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <v>666.28</v>
+        <v>832.93</v>
       </c>
       <c r="G8" s="8">
-        <v>4003.17</v>
+        <v>5006.82</v>
       </c>
       <c r="H8" s="5">
         <v>2.19</v>
@@ -1459,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -1473,7 +1480,7 @@
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1489,13 +1496,13 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
-        <v>667.15</v>
+        <v>833.47</v>
       </c>
       <c r="G9" s="8">
-        <v>3336.02</v>
+        <v>4173.3500000000004</v>
       </c>
       <c r="H9" s="5">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -1504,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -1518,7 +1525,7 @@
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1534,13 +1541,13 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
-        <v>667.37</v>
+        <v>833.75</v>
       </c>
       <c r="G10" s="8">
-        <v>2668.65</v>
+        <v>3339.6</v>
       </c>
       <c r="H10" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -1549,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -1563,7 +1570,7 @@
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1571,21 +1578,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>42100</v>
+        <v>42098</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
-        <v>665.84</v>
+        <v>834.02</v>
       </c>
       <c r="G11" s="8">
-        <v>2002.81</v>
+        <v>2505.58</v>
       </c>
       <c r="H11" s="5">
-        <v>2.63</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -1594,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -1608,7 +1615,7 @@
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1616,21 +1623,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>42100</v>
+        <v>42099</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <v>668.47</v>
+        <v>834.3</v>
       </c>
       <c r="G12" s="8">
-        <v>1334.34</v>
+        <v>1671.28</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1639,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1653,7 +1660,7 @@
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1661,7 +1668,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6">
         <v>42100</v>
@@ -1669,13 +1676,13 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>668.47</v>
+        <v>834.57</v>
       </c>
       <c r="G13" s="5">
-        <v>665.87</v>
+        <v>836.71</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -1684,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1698,7 +1705,7 @@
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5">
-        <v>668.47</v>
+        <v>835.12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1714,13 +1721,13 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>665.87</v>
+        <v>836.71</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -1729,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>666.09</v>
+        <v>836.99</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -1743,7 +1750,7 @@
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5">
-        <v>666.09</v>
+        <v>836.99</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1764,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,22 +1784,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>6</v>
@@ -1804,32 +1811,32 @@
         <v>8</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>384</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6">
         <v>42093</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="8">
         <v>3340.48</v>
       </c>
       <c r="F2" s="8">
-        <v>3337.19</v>
+        <v>3327.32</v>
       </c>
       <c r="G2" s="5">
-        <v>3.29</v>
+        <v>13.16</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -1838,23 +1845,23 @@
         <v>0</v>
       </c>
       <c r="J2" s="8">
-        <v>6662.81</v>
+        <v>6672.68</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>381</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6">
         <v>42088</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5">
         <v>200</v>
@@ -1879,10 +1886,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>380</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6">
         <v>42088</v>
@@ -1932,15 +1939,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="12">
         <v>41275</v>
@@ -1948,23 +1955,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="12">
         <v>41275</v>
@@ -1972,18 +1979,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2006,15 +2013,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="14">
         <v>41279</v>
@@ -2037,10 +2044,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2064,15 +2071,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3">
         <v>42093</v>
@@ -2080,47 +2087,47 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="10">
         <v>3000</v>
@@ -2147,31 +2154,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="17">
         <v>41275</v>
@@ -2179,7 +2186,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="17">
         <v>41275</v>
@@ -2187,31 +2194,31 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="12">
         <v>41275</v>
@@ -2219,15 +2226,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -2235,18 +2242,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
